--- a/datos a modelar de ensayo .xlsx
+++ b/datos a modelar de ensayo .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C029D-73B0-4632-BC6F-043687E0EAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A2FCB-E448-4476-ADDB-84B3150008E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{F604E9C9-1E5F-4188-A8A1-4769C49C6054}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>student1</t>
   </si>
@@ -96,6 +96,132 @@
   </si>
   <si>
     <t>student20</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>game1</t>
+  </si>
+  <si>
+    <t>game2</t>
+  </si>
+  <si>
+    <t>game3</t>
+  </si>
+  <si>
+    <t>game4</t>
+  </si>
+  <si>
+    <t>game5</t>
+  </si>
+  <si>
+    <t>game6</t>
+  </si>
+  <si>
+    <t>game7</t>
+  </si>
+  <si>
+    <t>game8</t>
+  </si>
+  <si>
+    <t>game9</t>
+  </si>
+  <si>
+    <t>game10</t>
+  </si>
+  <si>
+    <t>game11</t>
+  </si>
+  <si>
+    <t>game12</t>
+  </si>
+  <si>
+    <t>game13</t>
+  </si>
+  <si>
+    <t>game14</t>
+  </si>
+  <si>
+    <t>game15</t>
+  </si>
+  <si>
+    <t>game16</t>
+  </si>
+  <si>
+    <t>game17</t>
+  </si>
+  <si>
+    <t>game18</t>
+  </si>
+  <si>
+    <t>game19</t>
+  </si>
+  <si>
+    <t>game20</t>
+  </si>
+  <si>
+    <t>game21</t>
+  </si>
+  <si>
+    <t>game22</t>
+  </si>
+  <si>
+    <t>game23</t>
+  </si>
+  <si>
+    <t>game24</t>
+  </si>
+  <si>
+    <t>game25</t>
+  </si>
+  <si>
+    <t>game26</t>
+  </si>
+  <si>
+    <t>game27</t>
+  </si>
+  <si>
+    <t>game28</t>
+  </si>
+  <si>
+    <t>game29</t>
+  </si>
+  <si>
+    <t>game30</t>
+  </si>
+  <si>
+    <t>game31</t>
+  </si>
+  <si>
+    <t>game32</t>
+  </si>
+  <si>
+    <t>game33</t>
+  </si>
+  <si>
+    <t>game34</t>
+  </si>
+  <si>
+    <t>game35</t>
+  </si>
+  <si>
+    <t>game36</t>
+  </si>
+  <si>
+    <t>game37</t>
+  </si>
+  <si>
+    <t>game38</t>
+  </si>
+  <si>
+    <t>game39</t>
+  </si>
+  <si>
+    <t>game40</t>
+  </si>
+  <si>
+    <t>game41</t>
   </si>
 </sst>
 </file>
@@ -453,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0CE986-B43C-4F5E-BA68-D4FC67AA7A52}">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+      <selection activeCell="AH1" sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,123 +594,123 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>3</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>2</v>
-      </c>
-      <c r="O1">
-        <v>3</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>2</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-      <c r="U1">
-        <v>-1</v>
-      </c>
-      <c r="V1">
-        <v>-1</v>
-      </c>
-      <c r="W1">
-        <v>-1</v>
-      </c>
-      <c r="X1">
-        <v>-1</v>
-      </c>
-      <c r="Y1">
-        <v>-1</v>
-      </c>
-      <c r="Z1">
-        <v>-1</v>
-      </c>
-      <c r="AA1">
-        <v>-1</v>
-      </c>
-      <c r="AB1">
-        <v>-1</v>
-      </c>
-      <c r="AC1">
-        <v>-1</v>
-      </c>
-      <c r="AD1">
-        <v>-1</v>
-      </c>
-      <c r="AE1">
-        <v>-1</v>
-      </c>
-      <c r="AF1">
-        <v>-1</v>
-      </c>
-      <c r="AG1">
-        <v>-1</v>
-      </c>
-      <c r="AH1">
-        <v>-1</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -593,209 +719,209 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -804,31 +930,31 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>-1</v>
@@ -884,31 +1010,31 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -988,31 +1114,31 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1092,13 +1218,13 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1110,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1196,31 +1322,31 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1300,19 +1426,19 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1321,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1404,28 +1530,28 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1508,10 +1634,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1523,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1535,28 +1661,28 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>-1</v>
@@ -1612,55 +1738,55 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>-1</v>
@@ -1716,31 +1842,31 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1820,37 +1946,37 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1924,37 +2050,37 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -2028,10 +2154,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2046,58 +2172,58 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2132,76 +2258,76 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2236,61 +2362,61 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T18">
         <v>-1</v>
@@ -2340,61 +2466,61 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>-1</v>
@@ -2444,111 +2570,215 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
+        <v>-1</v>
+      </c>
+      <c r="AD20">
+        <v>-1</v>
+      </c>
+      <c r="AE20">
+        <v>-1</v>
+      </c>
+      <c r="AF20">
+        <v>-1</v>
+      </c>
+      <c r="AG20">
+        <v>-1</v>
+      </c>
+      <c r="AH20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
-      </c>
-      <c r="AD20">
-        <v>-1</v>
-      </c>
-      <c r="AE20">
-        <v>-1</v>
-      </c>
-      <c r="AF20">
-        <v>-1</v>
-      </c>
-      <c r="AG20">
-        <v>-1</v>
-      </c>
-      <c r="AH20">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
+        <v>-1</v>
+      </c>
+      <c r="AD21">
+        <v>-1</v>
+      </c>
+      <c r="AE21">
+        <v>-1</v>
+      </c>
+      <c r="AF21">
+        <v>-1</v>
+      </c>
+      <c r="AG21">
+        <v>-1</v>
+      </c>
+      <c r="AH21">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AH20">
+  <conditionalFormatting sqref="A2:AH21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2566,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE9EA62-88E3-440C-9BA7-F91CF8862E6C}">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AP20"/>
+      <selection activeCell="AH1" sqref="AH1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,204 +2811,204 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>-1</v>
-      </c>
-      <c r="S1">
-        <v>-1</v>
-      </c>
-      <c r="T1">
-        <v>-1</v>
-      </c>
-      <c r="U1">
-        <v>-1</v>
-      </c>
-      <c r="V1">
-        <v>-1</v>
-      </c>
-      <c r="W1">
-        <v>-1</v>
-      </c>
-      <c r="X1">
-        <v>-1</v>
-      </c>
-      <c r="Y1">
-        <v>-1</v>
-      </c>
-      <c r="Z1">
-        <v>-1</v>
-      </c>
-      <c r="AA1">
-        <v>-1</v>
-      </c>
-      <c r="AB1">
-        <v>-1</v>
-      </c>
-      <c r="AC1">
-        <v>-1</v>
-      </c>
-      <c r="AD1">
-        <v>-1</v>
-      </c>
-      <c r="AE1">
-        <v>-1</v>
-      </c>
-      <c r="AF1">
-        <v>-1</v>
-      </c>
-      <c r="AG1">
-        <v>-1</v>
-      </c>
-      <c r="AH1">
-        <v>-1</v>
-      </c>
-      <c r="AI1">
-        <v>-1</v>
-      </c>
-      <c r="AJ1">
-        <v>-1</v>
-      </c>
-      <c r="AK1">
-        <v>-1</v>
-      </c>
-      <c r="AL1">
-        <v>-1</v>
-      </c>
-      <c r="AM1">
-        <v>-1</v>
-      </c>
-      <c r="AN1">
-        <v>-1</v>
-      </c>
-      <c r="AO1">
-        <v>-1</v>
-      </c>
-      <c r="AP1">
-        <v>-1</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -2837,76 +3067,76 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>-1</v>
@@ -2965,37 +3195,37 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -3093,37 +3323,37 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -3221,55 +3451,55 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R6">
         <v>-1</v>
@@ -3349,10 +3579,10 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3361,22 +3591,22 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3391,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>-1</v>
@@ -3477,25 +3707,25 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3504,25 +3734,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -3605,46 +3835,46 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -3733,46 +3963,46 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -3861,46 +4091,46 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -3989,13 +4219,13 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4004,31 +4234,31 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -4117,10 +4347,10 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4132,79 +4362,79 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE13">
         <v>-1</v>
@@ -4245,40 +4475,40 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -4287,61 +4517,61 @@
         <v>2</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14">
         <v>3</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH14">
         <v>-1</v>
@@ -4373,103 +4603,103 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB15">
         <v>3</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>-1</v>
@@ -4501,67 +4731,67 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -4573,263 +4803,263 @@
         <v>3</v>
       </c>
       <c r="Y16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16">
         <v>3</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AL16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AH17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AJ17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AM17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -4885,91 +5115,91 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>2</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
         <v>-1</v>
@@ -5013,134 +5243,263 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>-1</v>
+      </c>
+      <c r="AE20">
+        <v>-1</v>
+      </c>
+      <c r="AF20">
+        <v>-1</v>
+      </c>
+      <c r="AG20">
+        <v>-1</v>
+      </c>
+      <c r="AH20">
+        <v>-1</v>
+      </c>
+      <c r="AI20">
+        <v>-1</v>
+      </c>
+      <c r="AJ20">
+        <v>-1</v>
+      </c>
+      <c r="AK20">
+        <v>-1</v>
+      </c>
+      <c r="AL20">
+        <v>-1</v>
+      </c>
+      <c r="AM20">
+        <v>-1</v>
+      </c>
+      <c r="AN20">
+        <v>-1</v>
+      </c>
+      <c r="AO20">
+        <v>-1</v>
+      </c>
+      <c r="AP20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
-      </c>
-      <c r="AD20">
-        <v>-1</v>
-      </c>
-      <c r="AE20">
-        <v>-1</v>
-      </c>
-      <c r="AF20">
-        <v>-1</v>
-      </c>
-      <c r="AG20">
-        <v>-1</v>
-      </c>
-      <c r="AH20">
-        <v>-1</v>
-      </c>
-      <c r="AI20">
-        <v>-1</v>
-      </c>
-      <c r="AJ20">
-        <v>-1</v>
-      </c>
-      <c r="AK20">
-        <v>-1</v>
-      </c>
-      <c r="AL20">
-        <v>-1</v>
-      </c>
-      <c r="AM20">
-        <v>-1</v>
-      </c>
-      <c r="AN20">
-        <v>-1</v>
-      </c>
-      <c r="AO20">
-        <v>-1</v>
-      </c>
-      <c r="AP20">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
+        <v>-1</v>
+      </c>
+      <c r="AD21">
+        <v>-1</v>
+      </c>
+      <c r="AE21">
+        <v>-1</v>
+      </c>
+      <c r="AF21">
+        <v>-1</v>
+      </c>
+      <c r="AG21">
+        <v>-1</v>
+      </c>
+      <c r="AH21">
+        <v>-1</v>
+      </c>
+      <c r="AI21">
+        <v>-1</v>
+      </c>
+      <c r="AJ21">
+        <v>-1</v>
+      </c>
+      <c r="AK21">
+        <v>-1</v>
+      </c>
+      <c r="AL21">
+        <v>-1</v>
+      </c>
+      <c r="AM21">
+        <v>-1</v>
+      </c>
+      <c r="AN21">
+        <v>-1</v>
+      </c>
+      <c r="AO21">
+        <v>-1</v>
+      </c>
+      <c r="AP21">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AP20">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:AP21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5158,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EEC10B-29B5-4C23-87C8-6C325AF51504}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,69 +5532,69 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>-1</v>
-      </c>
-      <c r="J1">
-        <v>-1</v>
-      </c>
-      <c r="K1">
-        <v>-1</v>
-      </c>
-      <c r="L1">
-        <v>-1</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>-1</v>
@@ -5249,34 +5608,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K3">
         <v>-1</v>
@@ -5287,37 +5646,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -5325,37 +5684,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -5363,31 +5722,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -5401,34 +5760,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -5439,7 +5798,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5448,25 +5807,25 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -5477,10 +5836,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -5492,16 +5851,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -5515,10 +5874,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5530,19 +5889,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -5553,34 +5912,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -5591,22 +5950,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5615,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -5629,31 +5988,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -5667,37 +6026,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -5705,13 +6064,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -5720,22 +6079,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -5743,13 +6102,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -5758,95 +6117,95 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -5857,34 +6216,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -5895,44 +6254,83 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
-      </c>
-      <c r="K20">
-        <v>-1</v>
-      </c>
-      <c r="L20">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:L20">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:L21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/datos a modelar de ensayo .xlsx
+++ b/datos a modelar de ensayo .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A2FCB-E448-4476-ADDB-84B3150008E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1CFF0-0FFB-4707-9C31-9E1BCD36865F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{F604E9C9-1E5F-4188-A8A1-4769C49C6054}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F604E9C9-1E5F-4188-A8A1-4769C49C6054}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="9" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0CE986-B43C-4F5E-BA68-D4FC67AA7A52}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="A1:AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>-1</v>
@@ -2618,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>2</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T20">
         <v>-1</v>
@@ -5519,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EEC10B-29B5-4C23-87C8-6C325AF51504}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
